--- a/dados/tags_produtos.xlsx
+++ b/dados/tags_produtos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alan.ribeiro\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ed001fd75dfbae91/Área de Trabalho/SisDAF/dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_EFE15B6A2F9DAEE8665562C1F8C4BDAE5111DBD5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D19C4DA-A352-4E4B-9367-3D764DE98672}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
+    <workbookView xWindow="10290" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tags" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>id</t>
   </si>
@@ -229,12 +230,21 @@
   </si>
   <si>
     <t>Tuberculose</t>
+  </si>
+  <si>
+    <t>Grupo 1A</t>
+  </si>
+  <si>
+    <t>Grupo 1B</t>
+  </si>
+  <si>
+    <t>Grupo 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -745,10 +755,10 @@
     <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Incorreto" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutra" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Neutro" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ruim" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -770,6 +780,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1034,14 +1048,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1049,7 +1065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1057,7 +1073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1065,7 +1081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1073,7 +1089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1081,7 +1097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1089,7 +1105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1097,7 +1113,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1105,7 +1121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1113,7 +1129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1121,7 +1137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1129,7 +1145,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1137,7 +1153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1145,7 +1161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1153,7 +1169,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1161,7 +1177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1169,7 +1185,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1177,7 +1193,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1185,7 +1201,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1193,7 +1209,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1201,7 +1217,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1209,7 +1225,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1217,7 +1233,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1225,7 +1241,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1233,7 +1249,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1241,7 +1257,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1249,7 +1265,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1257,7 +1273,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1265,7 +1281,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1273,7 +1289,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1281,7 +1297,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1289,7 +1305,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1297,7 +1313,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1305,291 +1321,315 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
         <v>69</v>
       </c>
     </row>
